--- a/documents/01_PM/FRVA_Phasenplanung.xlsx
+++ b/documents/01_PM/FRVA_Phasenplanung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planung" sheetId="1" state="visible" r:id="rId2"/>
@@ -1322,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R29" activeCellId="0" sqref="R29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2188,8 +2188,8 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="7" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="69" t="n">
         <v>43080</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="8" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="69" t="n">
         <v>43119</v>

--- a/documents/01_PM/FRVA_Phasenplanung.xlsx
+++ b/documents/01_PM/FRVA_Phasenplanung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planung" sheetId="1" state="visible" r:id="rId2"/>
@@ -145,17 +145,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→ Abgenommen Hueni, Gwerder
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Grobplanung → Abgenommen Hueni, Gwerder</t>
+      <t xml:space="preserve">→ Abgenommen Hueni, Gwerder</t>
     </r>
   </si>
   <si>
@@ -185,6 +175,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Abgenommen</t>
     </r>
@@ -206,7 +197,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→ </t>
+      <t xml:space="preserve">→ Abgenommen Hueni, Gwerder
+ - Definieren der Inhalte Prototypen → Abgenommen Hueni, Gwerder
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Risiken evaluiert </t>
     </r>
     <r>
       <rPr>
@@ -214,8 +216,52 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Abgenommen</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">→ Zur Kenntnis Hueni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lifecycle Architecture Milestone (Abschluss Elaboration)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - ArchitekturPrototyp erstellt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">→ Abgenommen Hueni, Gwerder
+ - GUI Prototyp erstellt→ Abgenommen Hueni, Gwerder
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Planung der Construction Phase → Zur Kenntnis</t>
     </r>
     <r>
       <rPr>
@@ -235,7 +281,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> - Risiken evaluiert </t>
+      <t xml:space="preserve"> - </t>
     </r>
     <r>
       <rPr>
@@ -245,157 +291,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→ Zur Kenntnis Hueni, Gwerder</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lifecycle Architecture Milestone (Abschluss Elaboration)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - ArchitekturPrototyp erstellt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Abgenommen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Hueni, Gwerder
- - GUI Prototyp erstellt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">→ Abgenommen Hueni, Gwerder
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Planung der Construction Phase → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Abgenommen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Hueni, Gwerder
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Detaillierte und priorisierte </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Requirements &amp; UseCases (als UserStories) → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Abgenommen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Hueni, Gwerder
- - Testgerät erhalten → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Abgenommen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Mosimann, Wigger
- - Zwischengespräch durchgeführt → Gwerder, Wigger, Mosimann
+      <t xml:space="preserve">Requirements &amp; UseCases (als UserStories) v.2.0 → Abgenommen Hueni, Gwerder
+ - Testgerät erhalten → Abgenommen Mosimann, Wigger
 </t>
     </r>
   </si>
@@ -419,12 +316,21 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Planung Übergabe und Integration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Produkt → Begutachtet Hueni, Gwerder
- - Produkt-Dokumentation → Begutachtet Hueni, Gwerder
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">→ Abgenommen Hueni, Gwerder
 </t>
     </r>
     <r>
@@ -434,7 +340,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> - Planung Übergabe und Integration </t>
+      <t xml:space="preserve"> - Mängelliste erstellt </t>
     </r>
     <r>
       <rPr>
@@ -444,65 +350,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Abgenommen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Hueni, Gwerder
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Bestehende Mängel sind dokumentiert </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Abgenommen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Hueni, Gwerder
+      <t xml:space="preserve">→ Abgenommen Hueni, Gwerder
 </t>
     </r>
   </si>
@@ -535,7 +383,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→ </t>
+      <t xml:space="preserve">→ Übergeben Hueni, Gwerder
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Produkt-Dokumentation </t>
     </r>
     <r>
       <rPr>
@@ -543,57 +401,9 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Abgenommen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Hueni, Gwerder
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Produkt-Dokumentation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Abgenommen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Hueni, Gwerder
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">→ Übergeben Hueni, Gwerder
  - Selbstreflektion → Übergeben an Gwerder
  - Projekt-Dokumentation → Übergeben an Gwerder (Print &amp; PDF)</t>
     </r>
@@ -624,7 +434,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -675,12 +485,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1322,14 +1126,15 @@
   </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,15 +1993,17 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="120.005102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="118.658163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,14 +2127,15 @@
   </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="74" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="74" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/documents/01_PM/FRVA_Phasenplanung.xlsx
+++ b/documents/01_PM/FRVA_Phasenplanung.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Planung" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Meilensteine" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Termine" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Releases-Prototypen" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t xml:space="preserve">Projektplanung</t>
   </si>
@@ -114,39 +115,14 @@
     <t xml:space="preserve">Beschreibung</t>
   </si>
   <si>
+    <t xml:space="preserve">abgenommen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meilensteine
+ - Meilensteine → Abgenommen Hueni, Gwerder</t>
+  </si>
+  <si>
     <t xml:space="preserve">offen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Meilensteine
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Meilensteine </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ Abgenommen Hueni, Gwerder</t>
-    </r>
   </si>
   <si>
     <r>
@@ -422,6 +398,160 @@
   </si>
   <si>
     <t xml:space="preserve">Notenbekanntgabe (spätestens)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Releases/Prototypen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunden investiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhalt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Architektur &amp; GUI – Prototyp 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Bedienungsablauf erkennbar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Architektur &amp; GUI – Prototyp 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Bedienungsablauf definiert
+ - Zu verwendende Grafische-Elemente definiert
+ - Code Struktur ist definiert (Klassendiagramm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Funktionalität:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Epic E Data import
+Epic F Datavisualization (Disconnected Mode)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Funktionalität:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Epic A Set up communication with Flox/Rox
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Funktionalität:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Epic B Statusview</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Funktionalität:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Epic D Device control
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Epic C Live view </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Fixing</t>
   </si>
 </sst>
 </file>
@@ -434,7 +564,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -472,9 +602,32 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <i val="true"/>
       <u val="single"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -486,8 +639,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +694,14 @@
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -700,6 +870,27 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -725,11 +916,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -990,16 +1181,32 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1030,8 +1237,56 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1052,8 +1307,19 @@
         <family val="2"/>
         <b val="1"/>
         <i val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="00FFFFFF"/>
         <u val="single"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1105,7 +1371,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF7F00"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1126,15 +1392,15 @@
   </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,19 +2257,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="118.658163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="117.44387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,102 +2277,105 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="64"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D3" s="67" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="69" t="n">
-        <v>42989</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="69" t="n">
-        <v>42995</v>
+        <v>42989</v>
       </c>
       <c r="C4" s="70" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="72" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="73" t="n">
+        <v>42995</v>
+      </c>
+      <c r="C5" s="74" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68" t="n">
+      <c r="D5" s="75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="n">
+      <c r="B6" s="76" t="n">
         <v>43024</v>
       </c>
-      <c r="C5" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68" t="n">
+      <c r="C6" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="69" t="n">
+      <c r="B7" s="73" t="n">
         <v>43038</v>
       </c>
-      <c r="C6" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68" t="n">
+      <c r="C7" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="72" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="69" t="n">
+      <c r="B8" s="73" t="n">
         <v>43080</v>
       </c>
-      <c r="C7" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="n">
+      <c r="C8" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="72" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="69" t="n">
+      <c r="B9" s="73" t="n">
         <v>43119</v>
       </c>
-      <c r="C8" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>36</v>
+      <c r="C9" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2125,191 +2394,360 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="74" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="64"/>
+      <c r="B2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="B3" s="80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="82" t="n">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="82" t="n">
+        <v>43066</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="82" t="n">
+        <v>43067</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="82" t="n">
+        <v>43068</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="82" t="n">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="82" t="n">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="82" t="n">
+        <v>43094</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="82" t="n">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="82" t="n">
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="82" t="n">
+        <v>43097</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="82" t="n">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="82" t="n">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="82" t="n">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="82" t="n">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="82" t="n">
+        <v>43102</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="82" t="n">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="82" t="n">
+        <v>43104</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="82" t="n">
+        <v>43105</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="82" t="n">
+        <v>43119</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="82" t="n">
+        <v>43133</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="74" t="n">
-        <v>42996</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="74" t="n">
+      <c r="A3" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="87" t="n">
+        <v>43010</v>
+      </c>
+      <c r="C4" s="88" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" s="90" customFormat="true" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="87" t="n">
+        <v>43024</v>
+      </c>
+      <c r="C5" s="88" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="86" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" s="87" t="n">
+        <v>43038</v>
+      </c>
+      <c r="C6" s="88" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="86" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B7" s="87" t="n">
+        <v>43052</v>
+      </c>
+      <c r="C7" s="88" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="87" t="n">
         <v>43066</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="74" t="n">
-        <v>43067</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="74" t="n">
-        <v>43068</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="74" t="n">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="74" t="n">
-        <v>43070</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="74" t="n">
-        <v>43094</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="74" t="n">
-        <v>43095</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="74" t="n">
-        <v>43096</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="74" t="n">
-        <v>43097</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="74" t="n">
-        <v>43098</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="74" t="n">
-        <v>43099</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="74" t="n">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="74" t="n">
-        <v>43101</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="74" t="n">
-        <v>43102</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="74" t="n">
-        <v>43103</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="74" t="n">
-        <v>43104</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="74" t="n">
-        <v>43105</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C8" s="88" t="n">
         <v>40</v>
       </c>
-      <c r="B21" s="74" t="n">
+      <c r="D8" s="91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="87" t="n">
+        <v>43080</v>
+      </c>
+      <c r="C9" s="88" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="86" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B10" s="87" t="n">
+        <v>43108</v>
+      </c>
+      <c r="C10" s="88" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B11" s="87" t="n">
         <v>43119</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="74" t="n">
-        <v>43133</v>
+      <c r="C11" s="88" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/documents/01_PM/FRVA_Phasenplanung.xlsx
+++ b/documents/01_PM/FRVA_Phasenplanung.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Planung" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Meilensteine" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Termine" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Releases-Prototypen" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Roadmap" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -447,6 +447,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> - Bedienungsablauf definiert
  - Zu verwendende Grafische-Elemente definiert
@@ -472,8 +473,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Epic E Data import
-Epic F Datavisualization (Disconnected Mode)</t>
+      <t xml:space="preserve">Epic F Datavisualization (Disconnected Mode)
+Dies Beinhaltet das MVP (Alle Prio 1 Tasks von Epic F)</t>
     </r>
   </si>
   <si>
@@ -506,6 +507,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Funktionalität:
 </t>
@@ -515,8 +517,20 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Epic B Statusview</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Epic B Statusview
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Epic E Data import</t>
     </r>
   </si>
   <si>
@@ -539,15 +553,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Epic D Device control
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Epic C Live view </t>
+Epic C Live view </t>
     </r>
   </si>
   <si>
@@ -564,7 +570,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -638,17 +644,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -920,7 +915,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1283,10 +1278,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1310,16 +1301,15 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
         <u val="single"/>
       </font>
       <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1398,9 +1388,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,11 +2254,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="117.44387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="114.877551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,9 +2390,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.2040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,16 +2591,14 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.8571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,11 +2689,11 @@
       <c r="C8" s="88" t="n">
         <v>40</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="89" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="86" t="n">
         <v>1</v>
       </c>
@@ -2722,7 +2707,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="86" t="n">
         <v>1.1</v>
       </c>
@@ -2736,7 +2721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="86" t="n">
         <v>1.2</v>
       </c>

--- a/documents/01_PM/FRVA_Phasenplanung.xlsx
+++ b/documents/01_PM/FRVA_Phasenplanung.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick.wigger/Dropbox/FloxRox/floxrox/documents/01_PM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26320" windowHeight="16420" tabRatio="991" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Planung" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Meilensteine" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Termine" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Roadmap" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Planung" sheetId="1" r:id="rId1"/>
+    <sheet name="Meilensteine" sheetId="2" r:id="rId2"/>
+    <sheet name="Termine" sheetId="3" r:id="rId3"/>
+    <sheet name="Releases-Prototypen" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -25,109 +35,109 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
-    <t xml:space="preserve">Projektplanung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semester HS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektwoche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weihnachtsferien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalenderwoche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wochenstart (Montag)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboration 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboration 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transition 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transition 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meilensteine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Releases / Prototypen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verfügbarkeit (in Stunden)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roland Mosimann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Wigger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Gwerder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evtl. Abwesend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicht erreichbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andreas Hüni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erreichbar, aber ausser Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fälligkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beschreibung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abgenommen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meilensteine
+    <t>Projektplanung</t>
+  </si>
+  <si>
+    <t>Semester HS17</t>
+  </si>
+  <si>
+    <t>Projektwoche</t>
+  </si>
+  <si>
+    <t>Weihnachtsferien</t>
+  </si>
+  <si>
+    <t>Kalenderwoche</t>
+  </si>
+  <si>
+    <t>Wochenstart (Montag)</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Elaboration 1</t>
+  </si>
+  <si>
+    <t>Elaboration 2</t>
+  </si>
+  <si>
+    <t>Construction 1</t>
+  </si>
+  <si>
+    <t>Construction 2</t>
+  </si>
+  <si>
+    <t>Construction 3</t>
+  </si>
+  <si>
+    <t>Construction 4</t>
+  </si>
+  <si>
+    <t>Transition 1</t>
+  </si>
+  <si>
+    <t>Transition 2</t>
+  </si>
+  <si>
+    <t>Meilensteine</t>
+  </si>
+  <si>
+    <t>Releases / Prototypen</t>
+  </si>
+  <si>
+    <t>Verfügbarkeit (in Stunden)</t>
+  </si>
+  <si>
+    <t>Roland Mosimann</t>
+  </si>
+  <si>
+    <t>Ferien</t>
+  </si>
+  <si>
+    <t>Patrick Wigger</t>
+  </si>
+  <si>
+    <t>Martin Gwerder</t>
+  </si>
+  <si>
+    <t>evtl. Abwesend</t>
+  </si>
+  <si>
+    <t>Nicht erreichbar</t>
+  </si>
+  <si>
+    <t>Andreas Hüni</t>
+  </si>
+  <si>
+    <t>erreichbar, aber ausser Land</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Fälligkeit</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>abgenommen</t>
+  </si>
+  <si>
+    <t>Meilensteine
  - Meilensteine → Abgenommen Hueni, Gwerder</t>
   </si>
   <si>
-    <t xml:space="preserve">offen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>offen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -153,7 +163,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Abgenommen</t>
+      <t>Abgenommen</t>
     </r>
     <r>
       <rPr>
@@ -194,13 +204,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→ Zur Kenntnis Hueni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>→ Zur Kenntnis Hueni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -280,7 +290,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -333,7 +343,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -379,39 +389,39 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">→ Übergeben Hueni, Gwerder
+      <t>→ Übergeben Hueni, Gwerder
  - Selbstreflektion → Übergeben an Gwerder
  - Projekt-Dokumentation → Übergeben an Gwerder (Print &amp; PDF)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Termine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semesterbeginn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektabgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notenbekanntgabe (spätestens)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Releases/Prototypen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stunden investiert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhalt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>Termine</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Semesterbeginn</t>
+  </si>
+  <si>
+    <t>Projektabgabe</t>
+  </si>
+  <si>
+    <t>Notenbekanntgabe (spätestens)</t>
+  </si>
+  <si>
+    <t>Releases/Prototypen</t>
+  </si>
+  <si>
+    <t>Stunden investiert</t>
+  </si>
+  <si>
+    <t>Inhalt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -433,7 +443,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -457,7 +467,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -473,14 +483,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Epic F Datavisualization (Disconnected Mode)
-Dies Beinhaltet das MVP (Alle Prio 1 Tasks von Epic F)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>Epic E Data import
+Epic F Datavisualization (Disconnected Mode)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -503,7 +513,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -519,24 +529,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Epic B Statusview
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Epic E Data import</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>Epic B Statusview</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -553,24 +552,30 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Epic D Device control
-Epic C Live view </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Bug Fixing</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Epic C Live view </t>
+    </r>
+  </si>
+  <si>
+    <t>Bug Fixing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -578,36 +583,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -615,9 +605,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
+      <b/>
+      <i/>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -631,7 +621,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
@@ -644,6 +634,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -697,621 +693,510 @@
     </fill>
   </fills>
   <borders count="27">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="dashed"/>
-      <top style="thin"/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="dashed"/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="dashed"/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="92">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <i val="1"/>
+        <b/>
+        <i/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u/>
         <color rgb="FFFFFFFF"/>
-        <u val="single"/>
+        <name val="Arial"/>
       </font>
-      <numFmt numFmtId="164" formatCode="General"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1370,283 +1255,550 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="9.71938775510204"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="13" t="s">
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="10">
         <v>33</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="10">
         <v>34</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="10">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="10">
         <v>36</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10">
         <v>37</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="11">
         <v>38</v>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="12">
         <v>39</v>
       </c>
-      <c r="J4" s="11" t="n">
+      <c r="J4" s="12">
         <v>40</v>
       </c>
-      <c r="K4" s="11" t="n">
+      <c r="K4" s="12">
         <v>41</v>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="12">
         <v>42</v>
       </c>
-      <c r="M4" s="11" t="n">
+      <c r="M4" s="12">
         <v>43</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="12">
         <v>44</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="O4" s="12">
         <v>45</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="12">
         <v>46</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="Q4" s="12">
         <v>47</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="12">
         <v>48</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="12">
         <v>49</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="12">
         <v>50</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="12">
         <v>51</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="12">
         <v>52</v>
       </c>
-      <c r="W4" s="11" t="n">
+      <c r="W4" s="12">
         <v>1</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="12">
         <v>2</v>
       </c>
-      <c r="Y4" s="14" t="n">
+      <c r="Y4" s="14">
         <v>3</v>
       </c>
-      <c r="Z4" s="15" t="n">
+      <c r="Z4" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="16">
         <v>42954</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="17">
         <v>42961</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="17">
         <v>42968</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="17">
         <v>42975</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="17">
         <v>42982</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="G5" s="17">
         <v>42989</v>
       </c>
-      <c r="H5" s="18" t="n">
+      <c r="H5" s="18">
         <v>42996</v>
       </c>
-      <c r="I5" s="19" t="n">
+      <c r="I5" s="19">
         <v>43003</v>
       </c>
-      <c r="J5" s="19" t="n">
+      <c r="J5" s="19">
         <v>43010</v>
       </c>
-      <c r="K5" s="19" t="n">
+      <c r="K5" s="19">
         <v>43017</v>
       </c>
-      <c r="L5" s="19" t="n">
+      <c r="L5" s="19">
         <v>43024</v>
       </c>
-      <c r="M5" s="19" t="n">
+      <c r="M5" s="19">
         <v>43031</v>
       </c>
-      <c r="N5" s="19" t="n">
+      <c r="N5" s="19">
         <v>43038</v>
       </c>
-      <c r="O5" s="19" t="n">
+      <c r="O5" s="19">
         <v>43045</v>
       </c>
-      <c r="P5" s="19" t="n">
+      <c r="P5" s="19">
         <v>43052</v>
       </c>
-      <c r="Q5" s="19" t="n">
+      <c r="Q5" s="19">
         <v>43059</v>
       </c>
-      <c r="R5" s="19" t="n">
+      <c r="R5" s="19">
         <v>43066</v>
       </c>
-      <c r="S5" s="19" t="n">
+      <c r="S5" s="19">
         <v>43073</v>
       </c>
-      <c r="T5" s="19" t="n">
+      <c r="T5" s="19">
         <v>43080</v>
       </c>
-      <c r="U5" s="19" t="n">
+      <c r="U5" s="19">
         <v>43087</v>
       </c>
-      <c r="V5" s="19" t="n">
+      <c r="V5" s="19">
         <v>43094</v>
       </c>
-      <c r="W5" s="19" t="n">
+      <c r="W5" s="19">
         <v>43101</v>
       </c>
-      <c r="X5" s="19" t="n">
+      <c r="X5" s="19">
         <v>43108</v>
       </c>
-      <c r="Y5" s="20" t="n">
+      <c r="Y5" s="20">
         <v>43115</v>
       </c>
-      <c r="Z5" s="21" t="n">
+      <c r="Z5" s="21">
         <v>43122</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +1828,7 @@
       <c r="Y7" s="26"/>
       <c r="Z7" s="28"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -1684,7 +1836,7 @@
       <c r="V8" s="31"/>
       <c r="Z8" s="32"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1848,7 @@
       <c r="V9" s="22"/>
       <c r="Z9" s="35"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
@@ -1708,7 +1860,7 @@
       <c r="V10" s="22"/>
       <c r="Z10" s="35"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -1717,7 +1869,7 @@
       <c r="V11" s="22"/>
       <c r="Z11" s="35"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="33" t="s">
         <v>9</v>
       </c>
@@ -1730,7 +1882,7 @@
       <c r="V12" s="22"/>
       <c r="Z12" s="35"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
         <v>10</v>
       </c>
@@ -1744,7 +1896,7 @@
       <c r="V13" s="22"/>
       <c r="Z13" s="35"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="33" t="s">
         <v>11</v>
       </c>
@@ -1759,7 +1911,7 @@
       <c r="V14" s="22"/>
       <c r="Z14" s="35"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="33" t="s">
         <v>12</v>
       </c>
@@ -1774,7 +1926,7 @@
       <c r="V15" s="22"/>
       <c r="Z15" s="35"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="29"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -1786,7 +1938,7 @@
       <c r="V16" s="22"/>
       <c r="Z16" s="35"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="33" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1954,7 @@
       <c r="W17" s="41"/>
       <c r="Z17" s="35"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="33" t="s">
         <v>14</v>
       </c>
@@ -1818,7 +1970,7 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="35"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -1846,7 +1998,7 @@
       <c r="Y19" s="45"/>
       <c r="Z19" s="48"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="K20" s="30"/>
@@ -1857,7 +2009,7 @@
       <c r="V20" s="22"/>
       <c r="Y20" s="30"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
         <v>15</v>
       </c>
@@ -1865,20 +2017,20 @@
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
-      <c r="F21" s="50" t="n">
+      <c r="F21" s="50">
         <v>1</v>
       </c>
-      <c r="G21" s="51" t="n">
+      <c r="G21" s="51">
         <v>2</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
-      <c r="K21" s="51" t="n">
+      <c r="K21" s="51">
         <v>3</v>
       </c>
       <c r="L21" s="50"/>
-      <c r="M21" s="50" t="n">
+      <c r="M21" s="50">
         <v>4</v>
       </c>
       <c r="N21" s="50"/>
@@ -1886,7 +2038,7 @@
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
       <c r="R21" s="50"/>
-      <c r="S21" s="51" t="n">
+      <c r="S21" s="51">
         <v>5</v>
       </c>
       <c r="T21" s="50"/>
@@ -1894,200 +2046,200 @@
       <c r="V21" s="52"/>
       <c r="W21" s="50"/>
       <c r="X21" s="50"/>
-      <c r="Y21" s="51" t="n">
+      <c r="Y21" s="51">
         <v>6</v>
       </c>
       <c r="Z21" s="50"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>0.1</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>0.2</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22">
         <v>0.3</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22">
         <v>0.4</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22">
         <v>0.5</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="S22">
         <v>1</v>
       </c>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
-      <c r="W22" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y22" s="0" t="n">
+      <c r="W22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y22">
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
         <v>17</v>
       </c>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
-      <c r="D27" s="54" t="n">
+      <c r="D27" s="54">
         <v>5</v>
       </c>
       <c r="E27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="54" t="n">
+      <c r="F27" s="54">
         <v>5</v>
       </c>
-      <c r="G27" s="54" t="n">
+      <c r="G27" s="54">
         <v>5</v>
       </c>
-      <c r="H27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="K27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="L27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="M27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="N27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="O27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="P27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="R27" s="54" t="n">
+      <c r="H27" s="54">
+        <v>10</v>
+      </c>
+      <c r="I27" s="54">
+        <v>10</v>
+      </c>
+      <c r="J27" s="54">
+        <v>10</v>
+      </c>
+      <c r="K27" s="54">
+        <v>10</v>
+      </c>
+      <c r="L27" s="54">
+        <v>10</v>
+      </c>
+      <c r="M27" s="54">
+        <v>10</v>
+      </c>
+      <c r="N27" s="54">
+        <v>10</v>
+      </c>
+      <c r="O27" s="54">
+        <v>10</v>
+      </c>
+      <c r="P27" s="54">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="54">
+        <v>10</v>
+      </c>
+      <c r="R27" s="54">
         <v>40</v>
       </c>
-      <c r="S27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="T27" s="54" t="n">
+      <c r="S27" s="54">
+        <v>10</v>
+      </c>
+      <c r="T27" s="54">
         <v>10</v>
       </c>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
-      <c r="W27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="X27" s="54" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y27" s="54" t="n">
+      <c r="W27" s="54">
+        <v>10</v>
+      </c>
+      <c r="X27" s="54">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="54">
         <v>10</v>
       </c>
       <c r="Z27" s="56"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="57" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
-      <c r="D28" s="58" t="n">
+      <c r="D28" s="58">
         <v>5</v>
       </c>
       <c r="E28" s="58"/>
-      <c r="F28" s="58" t="n">
+      <c r="F28" s="58">
         <v>5</v>
       </c>
-      <c r="G28" s="58" t="n">
+      <c r="G28" s="58">
         <v>5</v>
       </c>
-      <c r="H28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="I28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="K28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="L28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="M28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="N28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="O28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="P28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="R28" s="58" t="n">
+      <c r="H28" s="58">
+        <v>10</v>
+      </c>
+      <c r="I28" s="58">
+        <v>10</v>
+      </c>
+      <c r="J28" s="58">
+        <v>10</v>
+      </c>
+      <c r="K28" s="58">
+        <v>10</v>
+      </c>
+      <c r="L28" s="58">
+        <v>10</v>
+      </c>
+      <c r="M28" s="58">
+        <v>10</v>
+      </c>
+      <c r="N28" s="58">
+        <v>10</v>
+      </c>
+      <c r="O28" s="58">
+        <v>10</v>
+      </c>
+      <c r="P28" s="58">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="58">
+        <v>10</v>
+      </c>
+      <c r="R28" s="58">
         <v>40</v>
       </c>
-      <c r="S28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" s="58" t="n">
+      <c r="S28" s="58">
+        <v>10</v>
+      </c>
+      <c r="T28" s="58">
         <v>10</v>
       </c>
       <c r="U28" s="59"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="X28" s="58" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y28" s="58" t="n">
+      <c r="W28" s="58">
+        <v>10</v>
+      </c>
+      <c r="X28" s="58">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="58">
         <v>10</v>
       </c>
       <c r="Z28" s="60"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="57" t="s">
         <v>21</v>
       </c>
@@ -2123,7 +2275,7 @@
       <c r="Y29" s="58"/>
       <c r="Z29" s="60"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="61" t="s">
         <v>24</v>
       </c>
@@ -2161,63 +2313,63 @@
       <c r="Y30" s="62"/>
       <c r="Z30" s="63"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="U31" s="22"/>
       <c r="V31" s="22"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="U32" s="22"/>
       <c r="V32" s="22"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U33" s="22"/>
       <c r="V33" s="22"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U34" s="22"/>
       <c r="V34" s="22"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U35" s="22"/>
       <c r="V35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U36" s="22"/>
       <c r="V36" s="22"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U37" s="22"/>
       <c r="V37" s="22"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U38" s="22"/>
       <c r="V38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U39" s="22"/>
       <c r="V39" s="22"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U40" s="22"/>
       <c r="V40" s="22"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U41" s="22"/>
       <c r="V41" s="22"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U42" s="22"/>
       <c r="V42" s="22"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U43" s="22"/>
       <c r="V43" s="22"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U44" s="22"/>
       <c r="V44" s="22"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="21:22" x14ac:dyDescent="0.15">
       <c r="U45" s="22"/>
       <c r="V45" s="22"/>
     </row>
@@ -2227,14 +2379,13 @@
     <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:Z4">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>WEEKNUM(NOW(),1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2242,33 +2393,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="114.877551020408"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="65" t="s">
         <v>26</v>
       </c>
@@ -2282,11 +2427,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="n">
+    <row r="4" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="68">
         <v>1</v>
       </c>
-      <c r="B4" s="69" t="n">
+      <c r="B4" s="69">
         <v>42989</v>
       </c>
       <c r="C4" s="70" t="s">
@@ -2296,11 +2441,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="72" t="n">
+    <row r="5" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="73" t="n">
+      <c r="B5" s="73">
         <v>42995</v>
       </c>
       <c r="C5" s="74" t="s">
@@ -2310,11 +2455,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="72" t="n">
+    <row r="6" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="72">
         <v>3</v>
       </c>
-      <c r="B6" s="76" t="n">
+      <c r="B6" s="76">
         <v>43024</v>
       </c>
       <c r="C6" s="74" t="s">
@@ -2324,11 +2469,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72" t="n">
+    <row r="7" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="72">
         <v>4</v>
       </c>
-      <c r="B7" s="73" t="n">
+      <c r="B7" s="73">
         <v>43038</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -2338,11 +2483,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72" t="n">
+    <row r="8" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="72">
         <v>5</v>
       </c>
-      <c r="B8" s="73" t="n">
+      <c r="B8" s="73">
         <v>43080</v>
       </c>
       <c r="C8" s="74" t="s">
@@ -2352,11 +2497,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="n">
+    <row r="9" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="72">
         <v>6</v>
       </c>
-      <c r="B9" s="73" t="n">
+      <c r="B9" s="73">
         <v>43119</v>
       </c>
       <c r="C9" s="74" t="s">
@@ -2367,10 +2512,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2378,33 +2522,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.2040816326531"/>
+    <col min="2" max="2" width="19" style="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="79" t="s">
         <v>29</v>
       </c>
@@ -2412,171 +2552,170 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="82" t="n">
+      <c r="B4" s="82">
         <v>42996</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="82" t="n">
+      <c r="B5" s="82">
         <v>43066</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="82" t="n">
+      <c r="B6" s="82">
         <v>43067</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="82" t="n">
+      <c r="B7" s="82">
         <v>43068</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="82" t="n">
+      <c r="B8" s="82">
         <v>43069</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="82" t="n">
+      <c r="B9" s="82">
         <v>43070</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="82" t="n">
+      <c r="B10" s="82">
         <v>43094</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="82" t="n">
+      <c r="B11" s="82">
         <v>43095</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="82" t="n">
+      <c r="B12" s="82">
         <v>43096</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="82" t="n">
+      <c r="B13" s="82">
         <v>43097</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="82" t="n">
+      <c r="B14" s="82">
         <v>43098</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="82" t="n">
+      <c r="B15" s="82">
         <v>43099</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="82" t="n">
+      <c r="B16" s="82">
         <v>43100</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="82" t="n">
+      <c r="B17" s="82">
         <v>43101</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="82" t="n">
+      <c r="B18" s="82">
         <v>43102</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="82" t="n">
+      <c r="B19" s="82">
         <v>43103</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="82" t="n">
+      <c r="B20" s="82">
         <v>43104</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="82" t="n">
+      <c r="B21" s="82">
         <v>43105</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="82" t="n">
+      <c r="B22" s="82">
         <v>43119</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="82" t="n">
+      <c r="B23" s="82">
         <v>43133</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2584,32 +2723,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.8571428571429"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="83" t="s">
         <v>26</v>
       </c>
@@ -2623,112 +2757,112 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="86" t="n">
+    <row r="4" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="86">
         <v>0.1</v>
       </c>
-      <c r="B4" s="87" t="n">
+      <c r="B4" s="87">
         <v>43010</v>
       </c>
-      <c r="C4" s="88" t="n">
+      <c r="C4" s="88">
         <v>40</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" s="90" customFormat="true" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="86" t="n">
+    <row r="5" spans="1:4" s="90" customFormat="1" ht="54.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="86">
         <v>0.2</v>
       </c>
-      <c r="B5" s="87" t="n">
+      <c r="B5" s="87">
         <v>43024</v>
       </c>
-      <c r="C5" s="88" t="n">
+      <c r="C5" s="88">
         <v>40</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="86" t="n">
+    <row r="6" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="86">
         <v>0.3</v>
       </c>
-      <c r="B6" s="87" t="n">
+      <c r="B6" s="87">
         <v>43038</v>
       </c>
-      <c r="C6" s="88" t="n">
+      <c r="C6" s="88">
         <v>40</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="86" t="n">
+    <row r="7" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="86">
         <v>0.4</v>
       </c>
-      <c r="B7" s="87" t="n">
+      <c r="B7" s="87">
         <v>43052</v>
       </c>
-      <c r="C7" s="88" t="n">
+      <c r="C7" s="88">
         <v>40</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="86" t="n">
+    <row r="8" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="86">
         <v>0.5</v>
       </c>
-      <c r="B8" s="87" t="n">
+      <c r="B8" s="87">
         <v>43066</v>
       </c>
-      <c r="C8" s="88" t="n">
+      <c r="C8" s="88">
         <v>40</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="91" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="86" t="n">
+    <row r="9" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="86">
         <v>1</v>
       </c>
-      <c r="B9" s="87" t="n">
+      <c r="B9" s="87">
         <v>43080</v>
       </c>
-      <c r="C9" s="88" t="n">
+      <c r="C9" s="88">
         <v>100</v>
       </c>
       <c r="D9" s="89" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="86" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="B10" s="87" t="n">
+    <row r="10" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="86">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10" s="87">
         <v>43108</v>
       </c>
-      <c r="C10" s="88" t="n">
+      <c r="C10" s="88">
         <v>40</v>
       </c>
       <c r="D10" s="89" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="86" t="n">
+    <row r="11" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="86">
         <v>1.2</v>
       </c>
-      <c r="B11" s="87" t="n">
+      <c r="B11" s="87">
         <v>43119</v>
       </c>
-      <c r="C11" s="88" t="n">
+      <c r="C11" s="88">
         <v>40</v>
       </c>
       <c r="D11" s="89" t="s">
@@ -2736,10 +2870,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/documents/01_PM/FRVA_Phasenplanung.xlsx
+++ b/documents/01_PM/FRVA_Phasenplanung.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28705"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick.wigger/Dropbox/FloxRox/floxrox/documents/01_PM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26320" windowHeight="16420" tabRatio="991" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Planung" sheetId="1" r:id="rId1"/>
-    <sheet name="Meilensteine" sheetId="2" r:id="rId2"/>
-    <sheet name="Termine" sheetId="3" r:id="rId3"/>
-    <sheet name="Releases-Prototypen" sheetId="4" r:id="rId4"/>
+    <sheet name="Planung" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Meilensteine" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Termine" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Roadmap" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -35,109 +25,109 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
-    <t>Projektplanung</t>
-  </si>
-  <si>
-    <t>Semester HS17</t>
-  </si>
-  <si>
-    <t>Projektwoche</t>
-  </si>
-  <si>
-    <t>Weihnachtsferien</t>
-  </si>
-  <si>
-    <t>Kalenderwoche</t>
-  </si>
-  <si>
-    <t>Wochenstart (Montag)</t>
-  </si>
-  <si>
-    <t>Inception</t>
-  </si>
-  <si>
-    <t>Elaboration 1</t>
-  </si>
-  <si>
-    <t>Elaboration 2</t>
-  </si>
-  <si>
-    <t>Construction 1</t>
-  </si>
-  <si>
-    <t>Construction 2</t>
-  </si>
-  <si>
-    <t>Construction 3</t>
-  </si>
-  <si>
-    <t>Construction 4</t>
-  </si>
-  <si>
-    <t>Transition 1</t>
-  </si>
-  <si>
-    <t>Transition 2</t>
-  </si>
-  <si>
-    <t>Meilensteine</t>
-  </si>
-  <si>
-    <t>Releases / Prototypen</t>
-  </si>
-  <si>
-    <t>Verfügbarkeit (in Stunden)</t>
-  </si>
-  <si>
-    <t>Roland Mosimann</t>
-  </si>
-  <si>
-    <t>Ferien</t>
-  </si>
-  <si>
-    <t>Patrick Wigger</t>
-  </si>
-  <si>
-    <t>Martin Gwerder</t>
-  </si>
-  <si>
-    <t>evtl. Abwesend</t>
-  </si>
-  <si>
-    <t>Nicht erreichbar</t>
-  </si>
-  <si>
-    <t>Andreas Hüni</t>
-  </si>
-  <si>
-    <t>erreichbar, aber ausser Land</t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t>Fälligkeit</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>abgenommen</t>
-  </si>
-  <si>
-    <t>Meilensteine
+    <t xml:space="preserve">Projektplanung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semester HS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektwoche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weihnachtsferien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalenderwoche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wochenstart (Montag)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboration 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboration 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meilensteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Releases / Prototypen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfügbarkeit (in Stunden)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roland Mosimann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Wigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Gwerder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evtl. Abwesend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicht erreichbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Hüni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erreichbar, aber ausser Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fälligkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beschreibung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abgenommen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meilensteine
  - Meilensteine → Abgenommen Hueni, Gwerder</t>
   </si>
   <si>
-    <t>offen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">offen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -163,7 +153,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Abgenommen</t>
+      <t xml:space="preserve">Abgenommen</t>
     </r>
     <r>
       <rPr>
@@ -204,13 +194,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>→ Zur Kenntnis Hueni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">→ Zur Kenntnis Hueni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -290,7 +280,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -343,7 +333,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -389,39 +379,39 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>→ Übergeben Hueni, Gwerder
+      <t xml:space="preserve">→ Übergeben Hueni, Gwerder
  - Selbstreflektion → Übergeben an Gwerder
  - Projekt-Dokumentation → Übergeben an Gwerder (Print &amp; PDF)</t>
     </r>
   </si>
   <si>
-    <t>Termine</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Semesterbeginn</t>
-  </si>
-  <si>
-    <t>Projektabgabe</t>
-  </si>
-  <si>
-    <t>Notenbekanntgabe (spätestens)</t>
-  </si>
-  <si>
-    <t>Releases/Prototypen</t>
-  </si>
-  <si>
-    <t>Stunden investiert</t>
-  </si>
-  <si>
-    <t>Inhalt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">Termine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semesterbeginn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektabgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notenbekanntgabe (spätestens)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Releases/Prototypen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunden investiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhalt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -443,7 +433,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -467,7 +457,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -483,14 +473,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Epic E Data import
-Epic F Datavisualization (Disconnected Mode)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">Epic F Datavisualization (Disconnected Mode)
+Dies Beinhaltet das MVP (Alle Prio 1 Tasks von Epic F)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -513,7 +503,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -529,13 +519,24 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Epic B Statusview</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">Epic B Statusview
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Epic E Data import</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -552,30 +553,24 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Epic D Device control
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Epic C Live view </t>
-    </r>
-  </si>
-  <si>
-    <t>Bug Fixing</t>
+Epic C Live view </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Fixing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -583,21 +578,36 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -605,9 +615,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
+      <b val="true"/>
+      <i val="true"/>
+      <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -621,7 +631,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
@@ -634,12 +644,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -693,510 +697,621 @@
     </fill>
   </fills>
   <borders count="27">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right/>
       <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
+      <right style="hair"/>
       <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="dashed"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
+      <right style="dashed"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
+      <right style="dashed"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+  <cellXfs count="91">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
-        <b/>
-        <i/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="1"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
         <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
+        <u val="single"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1255,550 +1370,283 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="9.71938775510204"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="1" t="s">
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="15"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11" t="n">
         <v>43</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11" t="n">
         <v>44</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11" t="n">
         <v>47</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11" t="n">
         <v>48</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="11" t="n">
         <v>51</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="11" t="n">
         <v>52</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="15" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="16" t="n">
         <v>42954</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="17" t="n">
         <v>42961</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="17" t="n">
         <v>42968</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="17" t="n">
         <v>42975</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="17" t="n">
         <v>42982</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="17" t="n">
         <v>42989</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="18" t="n">
         <v>42996</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="19" t="n">
         <v>43003</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="19" t="n">
         <v>43010</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="19" t="n">
         <v>43017</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="19" t="n">
         <v>43024</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="19" t="n">
         <v>43031</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="19" t="n">
         <v>43038</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="19" t="n">
         <v>43045</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="19" t="n">
         <v>43052</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="19" t="n">
         <v>43059</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="19" t="n">
         <v>43066</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="19" t="n">
         <v>43073</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="19" t="n">
         <v>43080</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="19" t="n">
         <v>43087</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="19" t="n">
         <v>43094</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="19" t="n">
         <v>43101</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="19" t="n">
         <v>43108</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="20" t="n">
         <v>43115</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="Z5" s="21" t="n">
         <v>43122</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +1676,7 @@
       <c r="Y7" s="26"/>
       <c r="Z7" s="28"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -1836,7 +1684,7 @@
       <c r="V8" s="31"/>
       <c r="Z8" s="32"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1696,7 @@
       <c r="V9" s="22"/>
       <c r="Z9" s="35"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
@@ -1860,7 +1708,7 @@
       <c r="V10" s="22"/>
       <c r="Z10" s="35"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -1869,7 +1717,7 @@
       <c r="V11" s="22"/>
       <c r="Z11" s="35"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
         <v>9</v>
       </c>
@@ -1882,7 +1730,7 @@
       <c r="V12" s="22"/>
       <c r="Z12" s="35"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
         <v>10</v>
       </c>
@@ -1896,7 +1744,7 @@
       <c r="V13" s="22"/>
       <c r="Z13" s="35"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
         <v>11</v>
       </c>
@@ -1911,7 +1759,7 @@
       <c r="V14" s="22"/>
       <c r="Z14" s="35"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
         <v>12</v>
       </c>
@@ -1926,7 +1774,7 @@
       <c r="V15" s="22"/>
       <c r="Z15" s="35"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -1938,7 +1786,7 @@
       <c r="V16" s="22"/>
       <c r="Z16" s="35"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
         <v>13</v>
       </c>
@@ -1954,7 +1802,7 @@
       <c r="W17" s="41"/>
       <c r="Z17" s="35"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
         <v>14</v>
       </c>
@@ -1970,7 +1818,7 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="35"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -1998,7 +1846,7 @@
       <c r="Y19" s="45"/>
       <c r="Z19" s="48"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="K20" s="30"/>
@@ -2009,7 +1857,7 @@
       <c r="V20" s="22"/>
       <c r="Y20" s="30"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="49" t="s">
         <v>15</v>
       </c>
@@ -2017,20 +1865,20 @@
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
-      <c r="F21" s="50">
+      <c r="F21" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="51" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
-      <c r="K21" s="51">
+      <c r="K21" s="51" t="n">
         <v>3</v>
       </c>
       <c r="L21" s="50"/>
-      <c r="M21" s="50">
+      <c r="M21" s="50" t="n">
         <v>4</v>
       </c>
       <c r="N21" s="50"/>
@@ -2038,7 +1886,7 @@
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
       <c r="R21" s="50"/>
-      <c r="S21" s="51">
+      <c r="S21" s="51" t="n">
         <v>5</v>
       </c>
       <c r="T21" s="50"/>
@@ -2046,200 +1894,200 @@
       <c r="V21" s="52"/>
       <c r="W21" s="50"/>
       <c r="X21" s="50"/>
-      <c r="Y21" s="51">
+      <c r="Y21" s="51" t="n">
         <v>6</v>
       </c>
       <c r="Z21" s="50"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
-      <c r="W22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y22">
+      <c r="W22" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y22" s="0" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49" t="s">
         <v>17</v>
       </c>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
-      <c r="D27" s="54">
+      <c r="D27" s="54" t="n">
         <v>5</v>
       </c>
       <c r="E27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="54">
-        <v>10</v>
-      </c>
-      <c r="I27" s="54">
-        <v>10</v>
-      </c>
-      <c r="J27" s="54">
-        <v>10</v>
-      </c>
-      <c r="K27" s="54">
-        <v>10</v>
-      </c>
-      <c r="L27" s="54">
-        <v>10</v>
-      </c>
-      <c r="M27" s="54">
-        <v>10</v>
-      </c>
-      <c r="N27" s="54">
-        <v>10</v>
-      </c>
-      <c r="O27" s="54">
-        <v>10</v>
-      </c>
-      <c r="P27" s="54">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="54">
-        <v>10</v>
-      </c>
-      <c r="R27" s="54">
+      <c r="H27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="K27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" s="54" t="n">
         <v>40</v>
       </c>
-      <c r="S27" s="54">
-        <v>10</v>
-      </c>
-      <c r="T27" s="54">
+      <c r="S27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" s="54" t="n">
         <v>10</v>
       </c>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
-      <c r="W27" s="54">
-        <v>10</v>
-      </c>
-      <c r="X27" s="54">
-        <v>10</v>
-      </c>
-      <c r="Y27" s="54">
+      <c r="W27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="X27" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="54" t="n">
         <v>10</v>
       </c>
       <c r="Z27" s="56"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="57" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
-      <c r="D28" s="58">
+      <c r="D28" s="58" t="n">
         <v>5</v>
       </c>
       <c r="E28" s="58"/>
-      <c r="F28" s="58">
+      <c r="F28" s="58" t="n">
         <v>5</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="58" t="n">
         <v>5</v>
       </c>
-      <c r="H28" s="58">
-        <v>10</v>
-      </c>
-      <c r="I28" s="58">
-        <v>10</v>
-      </c>
-      <c r="J28" s="58">
-        <v>10</v>
-      </c>
-      <c r="K28" s="58">
-        <v>10</v>
-      </c>
-      <c r="L28" s="58">
-        <v>10</v>
-      </c>
-      <c r="M28" s="58">
-        <v>10</v>
-      </c>
-      <c r="N28" s="58">
-        <v>10</v>
-      </c>
-      <c r="O28" s="58">
-        <v>10</v>
-      </c>
-      <c r="P28" s="58">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="58">
-        <v>10</v>
-      </c>
-      <c r="R28" s="58">
+      <c r="H28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="N28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" s="58" t="n">
         <v>40</v>
       </c>
-      <c r="S28" s="58">
-        <v>10</v>
-      </c>
-      <c r="T28" s="58">
+      <c r="S28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" s="58" t="n">
         <v>10</v>
       </c>
       <c r="U28" s="59"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="58">
-        <v>10</v>
-      </c>
-      <c r="X28" s="58">
-        <v>10</v>
-      </c>
-      <c r="Y28" s="58">
+      <c r="W28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="X28" s="58" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="58" t="n">
         <v>10</v>
       </c>
       <c r="Z28" s="60"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="57" t="s">
         <v>21</v>
       </c>
@@ -2275,7 +2123,7 @@
       <c r="Y29" s="58"/>
       <c r="Z29" s="60"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="61" t="s">
         <v>24</v>
       </c>
@@ -2313,63 +2161,63 @@
       <c r="Y30" s="62"/>
       <c r="Z30" s="63"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U31" s="22"/>
       <c r="V31" s="22"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U32" s="22"/>
       <c r="V32" s="22"/>
     </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U33" s="22"/>
       <c r="V33" s="22"/>
     </row>
-    <row r="34" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U34" s="22"/>
       <c r="V34" s="22"/>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U35" s="22"/>
       <c r="V35" s="22"/>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U36" s="22"/>
       <c r="V36" s="22"/>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U37" s="22"/>
       <c r="V37" s="22"/>
     </row>
-    <row r="38" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U38" s="22"/>
       <c r="V38" s="22"/>
     </row>
-    <row r="39" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U39" s="22"/>
       <c r="V39" s="22"/>
     </row>
-    <row r="40" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U40" s="22"/>
       <c r="V40" s="22"/>
     </row>
-    <row r="41" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U41" s="22"/>
       <c r="V41" s="22"/>
     </row>
-    <row r="42" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U42" s="22"/>
       <c r="V42" s="22"/>
     </row>
-    <row r="43" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U43" s="22"/>
       <c r="V43" s="22"/>
     </row>
-    <row r="44" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U44" s="22"/>
       <c r="V44" s="22"/>
     </row>
-    <row r="45" spans="21:22" x14ac:dyDescent="0.15">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U45" s="22"/>
       <c r="V45" s="22"/>
     </row>
@@ -2379,13 +2227,14 @@
     <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:Z4">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>WEEKNUM(NOW(),1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2393,27 +2242,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="114.877551020408"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="64"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="65" t="s">
         <v>26</v>
       </c>
@@ -2427,11 +2282,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68">
+    <row r="4" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="69" t="n">
         <v>42989</v>
       </c>
       <c r="C4" s="70" t="s">
@@ -2441,11 +2296,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72">
+    <row r="5" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="73" t="n">
         <v>42995</v>
       </c>
       <c r="C5" s="74" t="s">
@@ -2455,11 +2310,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72">
+    <row r="6" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="76" t="n">
         <v>43024</v>
       </c>
       <c r="C6" s="74" t="s">
@@ -2469,11 +2324,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72">
+    <row r="7" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="73" t="n">
         <v>43038</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -2483,11 +2338,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72">
+    <row r="8" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="72" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="73" t="n">
         <v>43080</v>
       </c>
       <c r="C8" s="74" t="s">
@@ -2497,11 +2352,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72">
+    <row r="9" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="72" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="73" t="n">
         <v>43119</v>
       </c>
       <c r="C9" s="74" t="s">
@@ -2512,9 +2367,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2522,29 +2378,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="2" max="2" width="19" style="78" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.2040816326531"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="64"/>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="79" t="s">
         <v>29</v>
       </c>
@@ -2552,170 +2412,171 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="82" t="n">
         <v>42996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="82" t="n">
         <v>43066</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="82" t="n">
         <v>43067</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="82" t="n">
         <v>43068</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="82" t="n">
         <v>43069</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="82" t="n">
         <v>43070</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="82" t="n">
         <v>43094</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="82" t="n">
         <v>43095</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="82" t="n">
         <v>43096</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="82" t="n">
         <v>43097</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="82" t="n">
         <v>43098</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="82" t="n">
         <v>43099</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="82" t="n">
         <v>43100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B17" s="82" t="n">
         <v>43101</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B18" s="82" t="n">
         <v>43102</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="82" t="n">
         <v>43103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="82">
+      <c r="B20" s="82" t="n">
         <v>43104</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="82">
+      <c r="B21" s="82" t="n">
         <v>43105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="82">
+      <c r="B22" s="82" t="n">
         <v>43119</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="82">
+      <c r="B23" s="82" t="n">
         <v>43133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2723,27 +2584,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.8571428571429"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="83" t="s">
         <v>26</v>
       </c>
@@ -2757,112 +2623,112 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
+    <row r="4" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="86" t="n">
         <v>0.1</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="87" t="n">
         <v>43010</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="88" t="n">
         <v>40</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="90" customFormat="1" ht="54.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="86">
+    <row r="5" s="90" customFormat="true" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="86" t="n">
         <v>0.2</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="87" t="n">
         <v>43024</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="88" t="n">
         <v>40</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="86">
+    <row r="6" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="86" t="n">
         <v>0.3</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="87" t="n">
         <v>43038</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="88" t="n">
         <v>40</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="86">
+    <row r="7" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="86" t="n">
         <v>0.4</v>
       </c>
-      <c r="B7" s="87">
+      <c r="B7" s="87" t="n">
         <v>43052</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="88" t="n">
         <v>40</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="86">
+    <row r="8" s="90" customFormat="true" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="86" t="n">
         <v>0.5</v>
       </c>
-      <c r="B8" s="87">
+      <c r="B8" s="87" t="n">
         <v>43066</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="88" t="n">
         <v>40</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="89" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="86">
+    <row r="9" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="87">
+      <c r="B9" s="87" t="n">
         <v>43080</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="88" t="n">
         <v>100</v>
       </c>
       <c r="D9" s="89" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="86">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B10" s="87">
+    <row r="10" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="86" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B10" s="87" t="n">
         <v>43108</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="88" t="n">
         <v>40</v>
       </c>
       <c r="D10" s="89" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="90" customFormat="1" ht="46.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="86">
+    <row r="11" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="86" t="n">
         <v>1.2</v>
       </c>
-      <c r="B11" s="87">
+      <c r="B11" s="87" t="n">
         <v>43119</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="88" t="n">
         <v>40</v>
       </c>
       <c r="D11" s="89" t="s">
@@ -2870,9 +2736,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/documents/01_PM/FRVA_Phasenplanung.xlsx
+++ b/documents/01_PM/FRVA_Phasenplanung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planung" sheetId="1" state="visible" r:id="rId2"/>
@@ -122,80 +122,14 @@
  - Meilensteine → Abgenommen Hueni, Gwerder</t>
   </si>
   <si>
+    <t xml:space="preserve">Lifecycle Objective Milestone (Abschluss Inception)
+ - Vision → Abgenommen Hueni, Gwerder
+ - Initiale Requierments &amp; UseCases (als UserStories) → Abgenommen Hueni, Gwerder
+ - Definieren der Inhalte Prototypen → Abgenommen Hueni, Gwerder
+ - Risiken evaluiert → Zur Kenntnis Hueni</t>
+  </si>
+  <si>
     <t xml:space="preserve">offen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lifecycle Objective Milestone (Abschluss Inception)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Vision → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Abgenommen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Hueni, Gwerder
- - Initiale Requierments &amp; UseCases (als UserStories) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ Abgenommen Hueni, Gwerder
- - Definieren der Inhalte Prototypen → Abgenommen Hueni, Gwerder
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Risiken evaluiert </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ Zur Kenntnis Hueni</t>
-    </r>
   </si>
   <si>
     <r>
@@ -570,7 +504,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -594,6 +528,87 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -602,14 +617,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -625,7 +632,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF999999"/>
+      <color rgb="FFB2B2B2"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -633,7 +640,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF999999"/>
+      <color rgb="FFB2B2B2"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -646,12 +653,54 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -662,7 +711,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -686,22 +735,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF53A800"/>
-        <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -887,7 +945,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -911,7 +969,55 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -920,7 +1026,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -932,55 +1038,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -988,71 +1090,55 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1060,19 +1146,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1080,15 +1186,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1100,19 +1202,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1124,27 +1230,27 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1152,79 +1258,79 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="22" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="23" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="24" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1232,47 +1338,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1281,14 +1387,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1316,16 +1438,16 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF53A800"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -1337,7 +1459,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF007FFF"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1353,7 +1475,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF1CDC9A"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1361,9 +1483,9 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF7F00"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF53A800"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1382,14 +1504,15 @@
   </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,7 +2356,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2248,16 +2371,17 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="114.877551020408"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="114.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,28 +2421,28 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="72" t="n">
+      <c r="A5" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="73" t="n">
+      <c r="B5" s="69" t="n">
         <v>42995</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="71" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="76" t="n">
+      <c r="B6" s="73" t="n">
         <v>43024</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="75" t="s">
         <v>34</v>
@@ -2328,11 +2452,11 @@
       <c r="A7" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="73" t="n">
+      <c r="B7" s="76" t="n">
         <v>43038</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="77" t="s">
         <v>35</v>
@@ -2342,11 +2466,11 @@
       <c r="A8" s="72" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="73" t="n">
+      <c r="B8" s="76" t="n">
         <v>43080</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="75" t="s">
         <v>36</v>
@@ -2356,11 +2480,11 @@
       <c r="A9" s="72" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="73" t="n">
+      <c r="B9" s="76" t="n">
         <v>43119</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="75" t="s">
         <v>37</v>
@@ -2369,7 +2493,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2384,14 +2508,15 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="78" width="11.2040816326531"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="78" width="11.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,7 +2700,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2590,15 +2715,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.8571428571429"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,7 +2865,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
